--- a/Program/Other/URS會議審查紀錄/DbLayouts/L6-共同作業/CdCity.xlsx
+++ b/Program/Other/URS會議審查紀錄/DbLayouts/L6-共同作業/CdCity.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24527"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="T:\SKL\DB\GenTables\L6-共同作業\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SKL\DB\GenTables\L6-共同作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F261FF3F-B875-4DB3-8A3C-920129E73DF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9132"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DBD" sheetId="1" r:id="rId1"/>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="66">
   <si>
     <t>讀取Key條件</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -271,14 +272,6 @@
   </si>
   <si>
     <t>利率加減碼</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>JcicCityCode</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>聯徵用縣市代碼</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -352,15 +345,11 @@
     <t>法務人員電話-分機</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
-  <si>
-    <t>刪除</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="17">
     <font>
       <sz val="12"/>
@@ -679,8 +668,8 @@
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
-    <cellStyle name="一般 2" xfId="1"/>
-    <cellStyle name="一般_CopyBook" xfId="2"/>
+    <cellStyle name="一般 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="一般_CopyBook" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -771,6 +760,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -806,6 +812,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -981,11 +1004,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G36"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:G35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="I21" sqref="I21"/>
+    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2"/>
@@ -1118,7 +1141,7 @@
       </c>
       <c r="F8" s="29"/>
       <c r="G8" s="32" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -1185,10 +1208,10 @@
         <v>5</v>
       </c>
       <c r="B12" s="29" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C12" s="29" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D12" s="29" t="s">
         <v>9</v>
@@ -1202,10 +1225,10 @@
         <v>6</v>
       </c>
       <c r="B13" s="29" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C13" s="29" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D13" s="29" t="s">
         <v>9</v>
@@ -1219,10 +1242,10 @@
         <v>7</v>
       </c>
       <c r="B14" s="29" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C14" s="29" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D14" s="29" t="s">
         <v>9</v>
@@ -1253,10 +1276,10 @@
         <v>9</v>
       </c>
       <c r="B16" s="29" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C16" s="29" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D16" s="29" t="s">
         <v>9</v>
@@ -1270,10 +1293,10 @@
         <v>10</v>
       </c>
       <c r="B17" s="29" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C17" s="29" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D17" s="29" t="s">
         <v>9</v>
@@ -1287,10 +1310,10 @@
         <v>11</v>
       </c>
       <c r="B18" s="29" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C18" s="29" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D18" s="29" t="s">
         <v>9</v>
@@ -1367,18 +1390,18 @@
         <v>15</v>
       </c>
       <c r="B22" s="29" t="s">
-        <v>53</v>
+        <v>11</v>
       </c>
       <c r="C22" s="29" t="s">
-        <v>54</v>
+        <v>12</v>
       </c>
       <c r="D22" s="29" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="E22" s="29"/>
       <c r="F22" s="29"/>
-      <c r="G22" s="33" t="s">
-        <v>68</v>
+      <c r="G22" s="29" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -1386,15 +1409,17 @@
         <v>16</v>
       </c>
       <c r="B23" s="29" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C23" s="29" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D23" s="29" t="s">
-        <v>13</v>
-      </c>
-      <c r="E23" s="29"/>
+        <v>9</v>
+      </c>
+      <c r="E23" s="29">
+        <v>6</v>
+      </c>
       <c r="F23" s="29"/>
       <c r="G23" s="29" t="s">
         <v>10</v>
@@ -1405,17 +1430,15 @@
         <v>17</v>
       </c>
       <c r="B24" s="29" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C24" s="29" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D24" s="29" t="s">
-        <v>9</v>
-      </c>
-      <c r="E24" s="29">
-        <v>6</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="E24" s="29"/>
       <c r="F24" s="29"/>
       <c r="G24" s="29" t="s">
         <v>10</v>
@@ -1426,45 +1449,33 @@
         <v>18</v>
       </c>
       <c r="B25" s="29" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C25" s="29" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D25" s="29" t="s">
-        <v>13</v>
-      </c>
-      <c r="E25" s="29"/>
+        <v>9</v>
+      </c>
+      <c r="E25" s="29">
+        <v>6</v>
+      </c>
       <c r="F25" s="29"/>
       <c r="G25" s="29" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="26" spans="1:7">
-      <c r="A26" s="29">
-        <v>19</v>
-      </c>
-      <c r="B26" s="29" t="s">
-        <v>18</v>
-      </c>
-      <c r="C26" s="29" t="s">
-        <v>19</v>
-      </c>
-      <c r="D26" s="29" t="s">
-        <v>9</v>
-      </c>
-      <c r="E26" s="29">
-        <v>6</v>
-      </c>
-      <c r="F26" s="29"/>
-      <c r="G26" s="29" t="s">
-        <v>10</v>
-      </c>
+      <c r="B26" s="4"/>
+      <c r="C26" s="4"/>
+      <c r="D26" s="6"/>
+      <c r="E26" s="5"/>
+      <c r="F26" s="11"/>
+      <c r="G26" s="7"/>
     </row>
     <row r="27" spans="1:7">
       <c r="B27" s="4"/>
       <c r="C27" s="4"/>
-      <c r="D27" s="6"/>
       <c r="E27" s="5"/>
       <c r="F27" s="11"/>
       <c r="G27" s="7"/>
@@ -1472,6 +1483,7 @@
     <row r="28" spans="1:7">
       <c r="B28" s="4"/>
       <c r="C28" s="4"/>
+      <c r="D28" s="14"/>
       <c r="E28" s="5"/>
       <c r="F28" s="11"/>
       <c r="G28" s="7"/>
@@ -1482,7 +1494,7 @@
       <c r="D29" s="14"/>
       <c r="E29" s="5"/>
       <c r="F29" s="11"/>
-      <c r="G29" s="7"/>
+      <c r="G29" s="8"/>
     </row>
     <row r="30" spans="1:7">
       <c r="B30" s="4"/>
@@ -1501,38 +1513,30 @@
       <c r="G31" s="8"/>
     </row>
     <row r="32" spans="1:7">
-      <c r="B32" s="4"/>
-      <c r="C32" s="4"/>
-      <c r="D32" s="14"/>
-      <c r="E32" s="5"/>
+      <c r="B32" s="7"/>
+      <c r="C32" s="9"/>
+      <c r="E32" s="10"/>
       <c r="F32" s="11"/>
-      <c r="G32" s="8"/>
+      <c r="G32" s="17"/>
     </row>
     <row r="33" spans="2:7">
       <c r="B33" s="7"/>
       <c r="C33" s="9"/>
+      <c r="D33" s="6"/>
       <c r="E33" s="10"/>
       <c r="F33" s="11"/>
-      <c r="G33" s="17"/>
+      <c r="G33" s="15"/>
     </row>
     <row r="34" spans="2:7">
       <c r="B34" s="7"/>
       <c r="C34" s="9"/>
-      <c r="D34" s="6"/>
       <c r="E34" s="10"/>
-      <c r="F34" s="11"/>
-      <c r="G34" s="15"/>
     </row>
     <row r="35" spans="2:7">
       <c r="B35" s="7"/>
       <c r="C35" s="9"/>
+      <c r="D35" s="6"/>
       <c r="E35" s="10"/>
-    </row>
-    <row r="36" spans="2:7">
-      <c r="B36" s="7"/>
-      <c r="C36" s="9"/>
-      <c r="D36" s="6"/>
-      <c r="E36" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -1549,7 +1553,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">

--- a/Program/Other/URS會議審查紀錄/DbLayouts/L6-共同作業/CdCity.xlsx
+++ b/Program/Other/URS會議審查紀錄/DbLayouts/L6-共同作業/CdCity.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24729"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SKL\DB\GenTables\L6-共同作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F261FF3F-B875-4DB3-8A3C-920129E73DF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DC192CE-D5AF-449E-BB9A-B966B30D1435}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1007,8 +1007,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2"/>
